--- a/src/main/resources/Економіка_БП-3_Осінь_2023–2024.xlsx
+++ b/src/main/resources/Економіка_БП-3_Осінь_2023–2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Svitlana/Documents/FIdo_test/ScheduleParser/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F37E0CA-4BF1-724D-AEEC-2CB440958D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56361422-8875-E148-A830-6FE6CCAF227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,25 +59,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Спеціальність </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>«Економіка», «Фінанси, банківська справа та страхування», «Маркетинг», «Менеджмент» 3 р.н.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Розклад занять на осінній семестр  2023-2024 н.р.</t>
     </r>
   </si>
@@ -4169,27 +4150,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Projekt менеджмент (марк, мен)  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>доц. Гуменна О.В.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -5424,8 +5384,49 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Projekt менеджмент (марк, мен.) 
-</t>
+      <t xml:space="preserve">Менеджмент (фінанси) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>проф. Сидоренко С.В.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Спеціальність </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>«Економіка», «Фінанси, банківська справа та страхування», «Маркетинг», «Менеджмент» 3 р.н.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projekt менеджмент (марк, мен)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>доц. Гуменна О.В.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Projekt менеджмент (марк, мен.)  </t>
     </r>
     <r>
       <rPr>
@@ -5453,20 +5454,6 @@
         <family val="1"/>
       </rPr>
       <t>Волошин А.В.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Менеджмент (фінанси) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>проф. Сидоренко С.В.</t>
     </r>
   </si>
 </sst>
@@ -5807,7 +5794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5938,41 +5925,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5984,20 +5944,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6315,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="106" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6330,804 +6305,804 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="37" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="B7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>413</v>
+      <c r="C7" s="17" t="s">
+        <v>411</v>
       </c>
       <c r="D7" s="20">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="36" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="61" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53" t="s">
+      <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="D9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="32" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="61" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="32" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="62" t="s">
+      <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="F11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="32" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="32" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
       </c>
       <c r="F14" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="16" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="32" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="F16" s="32" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="15" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="32" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53" t="s">
+      <c r="C18" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="19">
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="32" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
       </c>
       <c r="F19" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="51"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="15" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="19">
         <v>2</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="32" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="15" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="32" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55" t="s">
+      <c r="C23" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="E23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="32" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="E24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="32" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53" t="s">
+      <c r="C25" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="19">
         <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="35" t="s">
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="7">
         <v>3</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="15" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="35" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="B28" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="C28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="34" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="33" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53" t="s">
+      <c r="C30" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="33" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="51"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="33" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="15" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="33" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="51"/>
+      <c r="B33" s="46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53" t="s">
+      <c r="C33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="F33" s="33" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="51"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="32" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="51"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="15" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="33" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="51"/>
+      <c r="B36" s="46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="53" t="s">
+      <c r="C36" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="F36" s="33" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="51"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="33" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="51"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="15" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
       </c>
       <c r="E38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="F38" s="32" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="F39" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="32" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="D40" s="7">
         <v>2</v>
       </c>
       <c r="E40" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F40" s="32" t="s">
+    </row>
+    <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="B41" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="C41" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="F41" s="40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="32" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="9" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="D43" s="7">
         <v>1</v>
       </c>
       <c r="E43" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="32" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
+      <c r="B44" s="58" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="47" t="s">
+      <c r="C44" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="E44" s="19">
         <v>1</v>
       </c>
       <c r="F44" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="9" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
       </c>
       <c r="E45" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="32" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="9" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
       </c>
       <c r="E46" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="32" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="9" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
       </c>
       <c r="E47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F47" s="32" t="s">
+    </row>
+    <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="53" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
-      <c r="B48" s="50" t="s">
+      <c r="C48" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="E48" s="19">
         <v>1</v>
       </c>
       <c r="F48" s="32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="51"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="9" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
       </c>
       <c r="E49" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="32" t="s">
+    </row>
+    <row r="50" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="51"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="9" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="D50" s="7">
         <v>2</v>
@@ -7136,163 +7111,163 @@
         <v>3</v>
       </c>
       <c r="F50" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="9" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="7">
         <v>2</v>
       </c>
       <c r="E51" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="39" t="s">
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="51"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="9" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
       </c>
       <c r="E52" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="39" t="s">
+    </row>
+    <row r="53" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="51"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="9" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D53" s="7">
         <v>3</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="39" t="s">
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="51"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="F54" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="39" t="s">
+      <c r="I54" s="44"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="51"/>
+      <c r="B55" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="I54" s="63"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
-      <c r="B55" s="50" t="s">
+      <c r="C55" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="E55" s="19">
         <v>1</v>
       </c>
       <c r="F55" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="51"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="E56" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="F56" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F56" s="39" t="s">
+    </row>
+    <row r="57" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="51"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="E57" s="19" t="s">
+      <c r="F57" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F57" s="39" t="s">
+    </row>
+    <row r="58" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+      <c r="B58" s="53" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
-      <c r="B58" s="50" t="s">
+      <c r="C58" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="E58" s="19">
         <v>1</v>
       </c>
       <c r="F58" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="51"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="E59" s="19">
         <v>2</v>
       </c>
       <c r="F59" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="9" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="D60" s="7">
         <v>1</v>
@@ -7301,729 +7276,729 @@
         <v>3</v>
       </c>
       <c r="F60" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="9" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="D61" s="7">
         <v>1</v>
       </c>
       <c r="E61" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="F61" s="39" t="s">
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="51"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="E62" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="F62" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="39" t="s">
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="51"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="6" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
       </c>
       <c r="E63" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="F63" s="39" t="s">
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="51"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="6" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="D64" s="7">
         <v>2</v>
       </c>
       <c r="E64" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="39" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="51"/>
+      <c r="B65" s="53" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
-      <c r="B65" s="50" t="s">
+      <c r="C65" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="E65" s="19">
         <v>1</v>
       </c>
       <c r="F65" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="51"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="6" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
       </c>
       <c r="E66" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F66" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F66" s="38" t="s">
+    </row>
+    <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="51" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="s">
+      <c r="B67" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="C67" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="F67" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="F67" s="36" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
       </c>
       <c r="E68" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F68" s="32" t="s">
+    </row>
+    <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51"/>
+      <c r="B69" s="18" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="18" t="s">
+      <c r="C69" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="E69" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="E69" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="18"/>
       <c r="C70" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="F70" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F70" s="32" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="18"/>
       <c r="C71" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="E71" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="F71" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F71" s="32" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="18"/>
       <c r="C72" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="E72" s="28">
         <v>1</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="18"/>
       <c r="C73" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D73" s="7">
         <v>1</v>
       </c>
       <c r="E73" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="32" t="s">
+    </row>
+    <row r="74" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="51"/>
+      <c r="B74" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D74" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="E74" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="F74" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="F74" s="32" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="18"/>
       <c r="C75" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="E75" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F75" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="F75" s="32" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="51"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="64" t="s">
+      <c r="D76" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="E76" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="F76" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="32" t="s">
+    </row>
+    <row r="77" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="51"/>
+      <c r="B77" s="18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="E77" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="18"/>
       <c r="C78" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="E78" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="F78" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F78" s="32" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="18"/>
       <c r="C79" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="F79" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="F79" s="32" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="18"/>
       <c r="C80" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="E80" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="F80" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="F80" s="32" t="s">
+    </row>
+    <row r="81" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="51"/>
+      <c r="B81" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="18" t="s">
+      <c r="C81" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="D81" s="7">
         <v>1</v>
       </c>
       <c r="E81" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F81" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="F81" s="33" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="82" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="18"/>
       <c r="C82" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E82" s="25">
         <v>1</v>
       </c>
       <c r="F82" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="18"/>
       <c r="C83" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D83" s="7">
         <v>1</v>
       </c>
       <c r="E83" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F83" s="33" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="84" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="18"/>
       <c r="C84" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="E84" s="25">
         <v>2</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="18"/>
       <c r="C85" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D85" s="7">
         <v>1</v>
       </c>
       <c r="E85" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F85" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="F85" s="33" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="51"/>
+      <c r="B86" s="18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
-      <c r="B86" s="18" t="s">
+      <c r="C86" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
       </c>
       <c r="E86" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F86" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="F86" s="33" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="18"/>
       <c r="C87" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D87" s="7">
         <v>2</v>
       </c>
       <c r="E87" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F87" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="F87" s="33" t="s">
+    </row>
+    <row r="88" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="B88" s="57" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="B88" s="44" t="s">
+      <c r="C88" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
       </c>
       <c r="E88" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="F88" s="36" t="s">
+    </row>
+    <row r="89" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="51"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="9" t="s">
+      <c r="D89" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="E89" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="F89" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F89" s="32" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="51"/>
+      <c r="B90" s="53" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
-      <c r="B90" s="50" t="s">
+      <c r="C90" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="E90" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="F90" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="F90" s="43" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="51"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="E91" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="F91" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="F91" s="43" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="51"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="9" t="s">
+      <c r="E92" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="F92" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="E92" s="19" t="s">
+    </row>
+    <row r="93" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="51"/>
+      <c r="B93" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="C93" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="50" t="s">
+      <c r="D93" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="E93" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="F93" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="E93" s="19" t="s">
+    </row>
+    <row r="94" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="51"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="D94" s="7" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="6" t="s">
+      <c r="E94" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="F94" s="43" t="s">
         <v>328</v>
       </c>
-      <c r="E94" s="19" t="s">
+    </row>
+    <row r="95" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="51"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F94" s="43" t="s">
+      <c r="D95" s="7" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="6" t="s">
+      <c r="E95" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="F95" s="43" t="s">
         <v>332</v>
       </c>
-      <c r="E95" s="19" t="s">
+    </row>
+    <row r="96" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="51"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="D96" s="7" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="6" t="s">
+      <c r="E96" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="F96" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="E96" s="19" t="s">
+    </row>
+    <row r="97" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="51"/>
+      <c r="B97" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="F96" s="43" t="s">
+      <c r="C97" s="9" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
-      <c r="B97" s="50" t="s">
+      <c r="D97" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="E97" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="F97" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="E97" s="19" t="s">
+    </row>
+    <row r="98" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="51"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="D98" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="6" t="s">
+      <c r="E98" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="F98" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="E98" s="19" t="s">
+    </row>
+    <row r="99" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="51"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="F98" s="43" t="s">
+      <c r="D99" s="7" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="6" t="s">
+      <c r="E99" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="F99" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="D99" s="7" t="s">
+    </row>
+    <row r="100" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="51"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="F99" s="43" t="s">
+      <c r="D100" s="7" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="6" t="s">
+      <c r="E100" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="F100" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="E100" s="19" t="s">
+    </row>
+    <row r="101" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="51"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="F100" s="43" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="D101" s="7">
         <v>1</v>
       </c>
       <c r="E101" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="51"/>
+      <c r="B102" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="F101" s="43" t="s">
+      <c r="C102" s="6" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
-      <c r="B102" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="D102" s="7">
         <v>2</v>
       </c>
       <c r="E102" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="51"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="6" t="s">
-        <v>362</v>
       </c>
       <c r="D103" s="7">
         <v>2</v>
       </c>
       <c r="E103" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="F103" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="51"/>
+      <c r="B104" s="18" t="s">
         <v>363</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
-      <c r="B104" s="18" t="s">
-        <v>365</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="7"/>
@@ -8031,197 +8006,221 @@
       <c r="F104" s="32"/>
     </row>
     <row r="105" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="B105" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="D105" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="E105" s="31">
         <v>1</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
-      <c r="B106" s="45"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D106" s="7">
         <v>1</v>
       </c>
       <c r="E106" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F106" s="42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="51"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F106" s="42" t="s">
+      <c r="D107" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="9" t="s">
+      <c r="E107" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="F107" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="E107" s="19" t="s">
+    </row>
+    <row r="108" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="51"/>
+      <c r="B108" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="F107" s="42" t="s">
+      <c r="C108" s="9" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
-      <c r="B108" s="50" t="s">
+      <c r="D108" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="E108" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="F108" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="D108" s="7" t="s">
+    </row>
+    <row r="109" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="51"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E108" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F108" s="32" t="s">
+      <c r="D109" s="7" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="E109" s="19">
         <v>12</v>
       </c>
       <c r="F109" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="51"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="E110" s="19">
         <v>13</v>
       </c>
       <c r="F110" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="51"/>
+      <c r="B111" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
-      <c r="B111" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="D111" s="7">
         <v>2</v>
       </c>
       <c r="E111" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="51"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="F111" s="32" t="s">
+      <c r="D112" s="7" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="9" t="s">
+      <c r="E112" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="F112" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="E112" s="19" t="s">
+    </row>
+    <row r="113" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="51"/>
+      <c r="B113" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="F112" s="32" t="s">
+      <c r="C113" s="9" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="18" t="s">
+      <c r="D113" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="E113" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="F113" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="E113" s="19" t="s">
+    </row>
+    <row r="114" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="51"/>
+      <c r="B114" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="F113" s="32" t="s">
+      <c r="C114" s="9" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="18" t="s">
+      <c r="D114" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="E114" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="F114" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="E114" s="19" t="s">
+    </row>
+    <row r="115" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="51"/>
+      <c r="B115" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="F114" s="32" t="s">
+      <c r="C115" s="9" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="52"/>
-      <c r="B115" s="18" t="s">
+      <c r="D115" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="E115" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="F115" s="33" t="s">
         <v>408</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F115" s="33" t="s">
-        <v>410</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A105:A115"/>
+    <mergeCell ref="A88:A104"/>
+    <mergeCell ref="A67:A87"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A41:A66"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B64"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B18:B22"/>
@@ -8234,30 +8233,6 @@
     <mergeCell ref="A7:A27"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A41:A66"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A28:A40"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A105:A115"/>
-    <mergeCell ref="A88:A104"/>
-    <mergeCell ref="A67:A87"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B64"/>
   </mergeCells>
   <pageMargins left="0.98" right="0.59" top="0.39" bottom="0.3" header="0.49" footer="0.49"/>
   <pageSetup paperSize="0" orientation="portrait"/>
